--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/42/word_level_predictions_42.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,215 +3409,215 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_B_as_E</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" t="inlineStr">
+      <c r="A58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Calibrate</t>
         </is>
       </c>
-      <c r="D58" t="n">
+      <c r="D58" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" t="b">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K58" t="b">
-        <v>1</v>
-      </c>
-      <c r="L58" t="inlineStr">
+      <c r="G58" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" t="inlineStr">
+      <c r="A59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D59" t="n">
+      <c r="D59" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K59" t="b">
-        <v>1</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" t="inlineStr">
+      <c r="A60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>Before</t>
         </is>
       </c>
-      <c r="D60" t="n">
+      <c r="D60" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K60" t="b">
-        <v>1</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" t="inlineStr">
+      <c r="A61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D61" t="n">
+      <c r="D61" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K61" t="b">
-        <v>1</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -8718,156 +8718,156 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>5</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>Wind</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F160" s="2" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>5</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>resistance</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>5</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>affected</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F162" s="2" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-60_original/ori5/42/word_level_predictions_42.xlsx
@@ -3385,239 +3385,239 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Calibrate</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>36</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I58" t="b">
+        <v>1</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Compass</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>37</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I59" t="b">
+        <v>1</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Before</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>38</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I60" t="b">
+        <v>1</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Takeoff</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>39</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G57" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K57" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_B_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr">
-        <is>
-          <t>Calibrate</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="E58" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F58" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G58" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K58" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L58" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr">
-        <is>
-          <t>Compass</t>
-        </is>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="E59" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F59" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I59" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L59" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr">
-        <is>
-          <t>Before</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="E60" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K60" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L60" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal . Solution: 1. Ensure there are no magnets or metal objects near the aircraft . The ground or walls may contain metal . Move away from sources of interference before attempting flight . 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>Takeoff</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="E61" s="2" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I61" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I61" t="b">
+        <v>1</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K61" t="b">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
@@ -8718,156 +8718,156 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>Wind</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="F160" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>resistance</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="n">
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>resistance</t>
-        </is>
-      </c>
-      <c r="D161" t="n">
-        <v>6</v>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>affected</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
         <is>
           <t>Event</t>
         </is>
       </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="n">
-        <v>5</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Propeller rotating too fast . Wind resistance affected . Return to home and land promptly . Check whether propeller on beeping ESC is warped or damaged .</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>affected</t>
-        </is>
-      </c>
-      <c r="D162" t="n">
-        <v>7</v>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
